--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/eq_coefficients_new_model_pre_covid.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/eq_coefficients_new_model_pre_covid.xlsx
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.258114432767102</v>
+        <v>-0.324531934935299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2043103321162601</v>
+        <v>0.2078099986478825</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1382604041359709</v>
+        <v>0.1141624813396719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1065037729420409</v>
+        <v>0.1065525368121747</v>
       </c>
     </row>
     <row r="4">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1408047179668596</v>
+        <v>0.1321516646729751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1045498076976855</v>
+        <v>0.1041982218336847</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1637731265909449</v>
+        <v>0.1525169406100624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1047593749577905</v>
+        <v>0.1046614502677305</v>
       </c>
     </row>
     <row r="6">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.004479006355797926</v>
+        <v>-0.02653577431185829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1030346483210343</v>
+        <v>0.1030658347647864</v>
       </c>
     </row>
     <row r="7">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3144181984307726</v>
+        <v>0.3440197654071753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149653970771676</v>
+        <v>0.147896593532031</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05039025441472184</v>
+        <v>0.05568862172653141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1568672382857523</v>
+        <v>0.155521155165301</v>
       </c>
     </row>
     <row r="9">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1569454367362397</v>
+        <v>0.1779901875198264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1658307952103273</v>
+        <v>0.1634388324861003</v>
       </c>
     </row>
     <row r="10">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03988686808028841</v>
+        <v>0.05000611303561593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1610145690814493</v>
+        <v>0.1598880475006245</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06760329071576025</v>
+        <v>-0.01347049222924166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06685305144566454</v>
+        <v>0.07953961325035688</v>
       </c>
     </row>
     <row r="12">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.267152613512077</v>
+        <v>4.310086185203766</v>
       </c>
       <c r="C12" t="n">
-        <v>2.290612110197311</v>
+        <v>2.276226500158998</v>
       </c>
     </row>
     <row r="13">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03979920711640569</v>
+        <v>0.1161947324750874</v>
       </c>
       <c r="C13" t="n">
-        <v>4.014588517914644</v>
+        <v>3.982794027303126</v>
       </c>
     </row>
     <row r="14">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.670482594884916</v>
+        <v>-5.501623499382887</v>
       </c>
       <c r="C14" t="n">
-        <v>4.064039384321896</v>
+        <v>4.031014519577562</v>
       </c>
     </row>
     <row r="15">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.909385901177082</v>
+        <v>2.010414753317842</v>
       </c>
       <c r="C15" t="n">
-        <v>2.561817899542675</v>
+        <v>2.536528500192559</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03563323754149351</v>
+        <v>0.04288161693774959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08407534448804946</v>
+        <v>0.08410442387081778</v>
       </c>
     </row>
     <row r="17">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02456470129450687</v>
+        <v>0.005714119550030441</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08716858672771252</v>
+        <v>0.08590274221013787</v>
       </c>
     </row>
     <row r="18">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03829798482143335</v>
+        <v>0.03541854577864128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08203437662621825</v>
+        <v>0.08116142987449232</v>
       </c>
     </row>
     <row r="19">
@@ -682,62 +682,62 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03658865167073087</v>
+        <v>-0.02711601046741349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07042243427912004</v>
+        <v>0.07028612031305144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L1_gcu</t>
+          <t>L1_cu</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002115892285638018</v>
+        <v>-0.7725282852786362</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02321077506912905</v>
+        <v>9.570372055055163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L2_gcu</t>
+          <t>L2_cu</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04823125325875035</v>
+        <v>-19.86262651808706</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02664334830386846</v>
+        <v>17.07898346486335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L3_gcu</t>
+          <t>L3_cu</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02036386056111367</v>
+        <v>21.84184111102504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02689442479855018</v>
+        <v>17.36009600816182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L4_gcu</t>
+          <t>L4_cu</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02352288466769463</v>
+        <v>-6.467757681772214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0203074885603314</v>
+        <v>9.919202955349117</v>
       </c>
     </row>
   </sheetData>
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.38979237865296</v>
+        <v>3.042377674289254</v>
       </c>
       <c r="C2" t="n">
-        <v>18.86207596361564</v>
+        <v>0.9282264015394623</v>
       </c>
       <c r="D2" t="n">
-        <v>1.187026943473357</v>
+        <v>3.277624585169604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2386033008700814</v>
+        <v>0.001529904183642678</v>
       </c>
     </row>
     <row r="3">
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02885526231912558</v>
+        <v>0.03023121447526651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08859981389615454</v>
+        <v>0.08811083674314929</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3256808457063584</v>
+        <v>0.3431043852573222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.745485478094616</v>
+        <v>0.7323874358597391</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04411780445252235</v>
+        <v>0.05788194520313884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08441589721960403</v>
+        <v>0.08423686466846003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5226243623017112</v>
+        <v>0.6871331860575647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6026279442256037</v>
+        <v>0.4939143088192079</v>
       </c>
     </row>
     <row r="5">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2496851777111291</v>
+        <v>0.2476551681717054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08335998312139827</v>
+        <v>0.08264258064817082</v>
       </c>
       <c r="D5" t="n">
-        <v>2.995264254642533</v>
+        <v>2.996701775638307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003613815427664086</v>
+        <v>0.00359849702274033</v>
       </c>
     </row>
     <row r="6">
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2499645947616589</v>
+        <v>0.257664536745656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08758659788029706</v>
+        <v>0.08672326249814834</v>
       </c>
       <c r="D6" t="n">
-        <v>2.853913735789587</v>
+        <v>2.971112125205823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005451393962866975</v>
+        <v>0.003880380508392733</v>
       </c>
     </row>
     <row r="7">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-46.24950333257318</v>
+        <v>-1.652586040996542</v>
       </c>
       <c r="C7" t="n">
-        <v>15.50394662871811</v>
+        <v>0.7059806442107848</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.983079369410676</v>
+        <v>-2.340837605886442</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003746104812698333</v>
+        <v>0.02163957395632586</v>
       </c>
     </row>
     <row r="8">
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.2037545145055</v>
+        <v>4.649509521087356</v>
       </c>
       <c r="C8" t="n">
-        <v>23.20134428011392</v>
+        <v>0.9777229659947535</v>
       </c>
       <c r="D8" t="n">
-        <v>4.792987560200089</v>
+        <v>4.755446770504014</v>
       </c>
       <c r="E8" t="n">
-        <v>7.118952570283315e-06</v>
+        <v>8.239817215566172e-06</v>
       </c>
     </row>
     <row r="9">
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.63939936509733</v>
+        <v>-1.583280842986272</v>
       </c>
       <c r="C9" t="n">
-        <v>25.16775493699504</v>
+        <v>1.068481455294628</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.376340458329064</v>
+        <v>-1.481804700625048</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1724181668680926</v>
+        <v>0.142178998141526</v>
       </c>
     </row>
     <row r="10">
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-76.21499719281296</v>
+        <v>-3.302471438892061</v>
       </c>
       <c r="C10" t="n">
-        <v>25.44735748832143</v>
+        <v>1.072200740049378</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.99500634703585</v>
+        <v>-3.080086886285839</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00361657010341764</v>
+        <v>0.002806223942581848</v>
       </c>
     </row>
     <row r="11">
@@ -964,16 +964,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.98820130080807</v>
+        <v>2.532988127822146</v>
       </c>
       <c r="C11" t="n">
-        <v>16.63630072189472</v>
+        <v>0.7823151713858066</v>
       </c>
       <c r="D11" t="n">
-        <v>3.004766632705765</v>
+        <v>3.23781031030648</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003513666085389913</v>
+        <v>0.001732257796798422</v>
       </c>
     </row>
     <row r="12">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.416091696058784</v>
+        <v>4.030439022059688</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6827018015867762</v>
+        <v>0.7190811354684978</v>
       </c>
       <c r="D12" t="n">
-        <v>6.468551402376031</v>
+        <v>5.604985061155532</v>
       </c>
       <c r="E12" t="n">
-        <v>6.480373557034437e-09</v>
+        <v>2.652903284272096e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.891426014703826</v>
+        <v>-1.882362477267213</v>
       </c>
       <c r="C13" t="n">
-        <v>1.042362769324262</v>
+        <v>1.034466677036621</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.814556381297071</v>
+        <v>-1.819645348711969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07320498742742255</v>
+        <v>0.07241849061627494</v>
       </c>
     </row>
     <row r="14">
@@ -1021,16 +1021,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04013439794830333</v>
+        <v>0.0696325212998208</v>
       </c>
       <c r="C14" t="n">
-        <v>1.025272004519006</v>
+        <v>1.014433579134346</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03914512224210383</v>
+        <v>0.06864177481116195</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9688686902776802</v>
+        <v>0.9454398639911386</v>
       </c>
     </row>
     <row r="15">
@@ -1040,16 +1040,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.9759334359347097</v>
+        <v>-0.9068918658411471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9877252599087045</v>
+        <v>0.9822652333657452</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9880616357071959</v>
+        <v>-0.9232657687920703</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3259941410287873</v>
+        <v>0.3585449778806827</v>
       </c>
     </row>
     <row r="16">
@@ -1059,16 +1059,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.370388502420636</v>
+        <v>2.140793443319634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8246659400816444</v>
+        <v>0.8037532099556847</v>
       </c>
       <c r="D16" t="n">
-        <v>2.874362074643171</v>
+        <v>2.663495979615021</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005140811860076084</v>
+        <v>0.009287613265408326</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/eq_coefficients_new_model_pre_covid.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/eq_coefficients_new_model_pre_covid.xlsx
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.042377674289254</v>
+        <v>4.162295600260551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9282264015394623</v>
+        <v>1.107274434386906</v>
       </c>
       <c r="D2" t="n">
-        <v>3.277624585169604</v>
+        <v>3.759046060306811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001529904183642678</v>
+        <v>0.0003162805065090288</v>
       </c>
     </row>
     <row r="3">
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03023121447526651</v>
+        <v>0.03023121447526297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08811083674314929</v>
+        <v>0.08811083674314943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3431043852573222</v>
+        <v>0.3431043852572815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7323874358597391</v>
+        <v>0.7323874358597695</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05788194520313884</v>
+        <v>0.05788194520314387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08423686466846003</v>
+        <v>0.08423686466845988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6871331860575647</v>
+        <v>0.6871331860576255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4939143088192079</v>
+        <v>0.49391430881917</v>
       </c>
     </row>
     <row r="5">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2476551681717054</v>
+        <v>0.2476551681717035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08264258064817082</v>
+        <v>0.0826425806481708</v>
       </c>
       <c r="D5" t="n">
-        <v>2.996701775638307</v>
+        <v>2.996701775638284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00359849702274033</v>
+        <v>0.003598497022740576</v>
       </c>
     </row>
     <row r="6">
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.257664536745656</v>
+        <v>0.2576645367456548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08672326249814834</v>
+        <v>0.08672326249814835</v>
       </c>
       <c r="D6" t="n">
-        <v>2.971112125205823</v>
+        <v>2.971112125205809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003880380508392733</v>
+        <v>0.003880380508392888</v>
       </c>
     </row>
     <row r="7">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.652586040996542</v>
+        <v>-39.44707325299284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7059806442107848</v>
+        <v>16.85169152862024</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.340837605886442</v>
+        <v>-2.340837605886478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02163957395632586</v>
+        <v>0.02163957395632394</v>
       </c>
     </row>
     <row r="8">
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.649509521087356</v>
+        <v>110.9833546447109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9777229659947535</v>
+        <v>23.33815517252609</v>
       </c>
       <c r="D8" t="n">
-        <v>4.755446770504014</v>
+        <v>4.75544677050402</v>
       </c>
       <c r="E8" t="n">
-        <v>8.239817215566172e-06</v>
+        <v>8.239817215566001e-06</v>
       </c>
     </row>
     <row r="9">
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.583280842986272</v>
+        <v>-37.7927646996677</v>
       </c>
       <c r="C9" t="n">
-        <v>1.068481455294628</v>
+        <v>25.50455176969453</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.481804700625048</v>
+        <v>-1.481804700625027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.142178998141526</v>
+        <v>0.1421789981415316</v>
       </c>
     </row>
     <row r="10">
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.302471438892061</v>
+        <v>-78.82968240935431</v>
       </c>
       <c r="C10" t="n">
-        <v>1.072200740049378</v>
+        <v>25.59333074672177</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.080086886285839</v>
+        <v>-3.080086886285855</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002806223942581848</v>
+        <v>0.002806223942581709</v>
       </c>
     </row>
     <row r="11">
@@ -964,16 +964,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.532988127822146</v>
+        <v>60.46218819983819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7823151713858066</v>
+        <v>18.6737895074883</v>
       </c>
       <c r="D11" t="n">
-        <v>3.23781031030648</v>
+        <v>3.237810310306459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001732257796798422</v>
+        <v>0.00173225779679854</v>
       </c>
     </row>
     <row r="12">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.030439022059688</v>
+        <v>4.030439022059699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7190811354684978</v>
+        <v>0.7190811354684982</v>
       </c>
       <c r="D12" t="n">
-        <v>5.604985061155532</v>
+        <v>5.604985061155546</v>
       </c>
       <c r="E12" t="n">
-        <v>2.652903284272096e-07</v>
+        <v>2.652903284271935e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.882362477267213</v>
+        <v>-1.882362477267233</v>
       </c>
       <c r="C13" t="n">
-        <v>1.034466677036621</v>
+        <v>1.034466677036626</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.819645348711969</v>
+        <v>-1.819645348711979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07241849061627494</v>
+        <v>0.07241849061627345</v>
       </c>
     </row>
     <row r="14">
@@ -1021,16 +1021,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0696325212998208</v>
+        <v>0.06963252129980541</v>
       </c>
       <c r="C14" t="n">
-        <v>1.014433579134346</v>
+        <v>1.014433579134348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06864177481116195</v>
+        <v>0.06864177481114662</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9454398639911386</v>
+        <v>0.9454398639911507</v>
       </c>
     </row>
     <row r="15">
@@ -1040,16 +1040,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.9068918658411471</v>
+        <v>-0.9068918658410942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9822652333657452</v>
+        <v>0.982265233365745</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9232657687920703</v>
+        <v>-0.9232657687920166</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3585449778806827</v>
+        <v>0.3585449778807103</v>
       </c>
     </row>
     <row r="16">
@@ -1059,16 +1059,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.140793443319634</v>
+        <v>2.140793443319625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8037532099556847</v>
+        <v>0.8037532099556828</v>
       </c>
       <c r="D16" t="n">
-        <v>2.663495979615021</v>
+        <v>2.663495979615016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009287613265408326</v>
+        <v>0.009287613265408437</v>
       </c>
     </row>
   </sheetData>
